--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1566058.884603257</v>
+        <v>-1568615.200430506</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12574568.46673314</v>
+        <v>12574568.46673313</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>162.6828958164083</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.87651346253443</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>81.79179012817158</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>214.9648145964636</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>76.86803591827537</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>135.9120781262755</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>97.50256666184468</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>39.03826843352779</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>97.32228826427065</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>273.0529551528105</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>58.64025828379314</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>40.13771612386392</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>9.795251606876045</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833726</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.9815576456768</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>92.58181139165723</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238293</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5702346036273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>166.8182344285492</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>80.33989744909022</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1565.440264581602</v>
+        <v>1144.044138553435</v>
       </c>
       <c r="C2" t="n">
-        <v>1196.477747641191</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D2" t="n">
-        <v>838.2120490344403</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906804</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645724</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.040104645724</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>627.5770176220484</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C4" t="n">
-        <v>458.6408346941415</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
         <v>163.8377936138381</v>
@@ -4483,55 +4483,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>831.1952085187388</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.603585224604</v>
+        <v>1172.603585224613</v>
       </c>
       <c r="O4" t="n">
-        <v>1471.933184145017</v>
+        <v>1471.933184145026</v>
       </c>
       <c r="P4" t="n">
-        <v>1704.540684578677</v>
+        <v>1704.540684578685</v>
       </c>
       <c r="Q4" t="n">
-        <v>1717.461451937217</v>
+        <v>1717.461451937226</v>
       </c>
       <c r="R4" t="n">
-        <v>1627.630994694745</v>
+        <v>1627.630994694754</v>
       </c>
       <c r="S4" t="n">
-        <v>1435.945110521572</v>
+        <v>1435.94511052158</v>
       </c>
       <c r="T4" t="n">
-        <v>1435.945110521572</v>
+        <v>1214.178495091106</v>
       </c>
       <c r="U4" t="n">
-        <v>1353.327140695136</v>
+        <v>925.0756282167498</v>
       </c>
       <c r="V4" t="n">
-        <v>1098.642652489249</v>
+        <v>670.391140010863</v>
       </c>
       <c r="W4" t="n">
-        <v>809.2254824522881</v>
+        <v>380.9739699739023</v>
       </c>
       <c r="X4" t="n">
-        <v>809.2254824522881</v>
+        <v>380.9739699739023</v>
       </c>
       <c r="Y4" t="n">
-        <v>809.2254824522881</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2011.826014609888</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1642.863497669476</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1284.597799062726</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>898.8095464644816</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4577,13 +4577,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649821</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2788.565186649821</v>
+        <v>2746.967338392416</v>
       </c>
       <c r="X5" t="n">
-        <v>2788.565186649821</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="Y5" t="n">
-        <v>2398.42585467401</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.6939999491682</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1517.210034342976</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1517.210034342976</v>
       </c>
       <c r="W7" t="n">
-        <v>1095.476129990716</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="X7" t="n">
-        <v>867.4865790926983</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="Y7" t="n">
-        <v>646.6939999491682</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1418.660964416651</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>764.3411331473101</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>353.3552283577025</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3231822431031</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1418.660964416651</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>538.8965081646988</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>369.960325236792</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>369.960325236792</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>369.960325236792</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>223.0703777388816</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>223.0703777388816</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1575.154327815684</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.154327815684</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.164776917667</v>
+        <v>941.3375521384687</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>720.5449729949386</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,22 +5124,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998277</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5261,40 +5261,40 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5358,22 +5358,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400701</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400701</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703098</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721979</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2272.649715293768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>382.4184417036842</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1876.003517158562</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1621.319028952675</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684978</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O24" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,31 +6242,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6449,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6543,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474266</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474266</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>261.8464821474266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>94.65038286230657</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6859,10 +6859,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,22 +7120,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,16 +7251,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2389.155899672379</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192507</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7801,13 +7801,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7822,22 +7822,22 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>31.89999691217102</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>25.20805284719754</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>220.0509458470723</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>365.0538566097273</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>204.4200480774413</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>3.619838755631234</v>
       </c>
     </row>
     <row r="5">
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823192</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462248</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>24.63391537253555</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>52.83923663127402</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.83521572366092</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>119.3662399606949</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>205.8445769401539</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>139.4693302300325</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118476.4986260253</v>
+        <v>118476.4986260252</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
@@ -26320,7 +26320,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="F2" t="n">
         <v>141250.6549457511</v>
@@ -26335,7 +26335,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
         <v>141250.6549457511</v>
@@ -26344,13 +26344,13 @@
         <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262494</v>
       </c>
-      <c r="N2" t="n">
-        <v>143682.3097262497</v>
-      </c>
       <c r="O2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262497</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363171</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.968558980384842e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10751.83355583449</v>
+        <v>10751.83355583466</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184272</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="I4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="J4" t="n">
-        <v>13606.80811184273</v>
-      </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.6673749362</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="M4" t="n">
+        <v>21597.66737493622</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21597.66737493624</v>
+      </c>
+      <c r="O4" t="n">
         <v>21597.66737493621</v>
       </c>
-      <c r="N4" t="n">
-        <v>21597.66737493623</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21597.66737493619</v>
-      </c>
       <c r="P4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1328954.021218796</v>
+        <v>-1329314.104234512</v>
       </c>
       <c r="C6" t="n">
-        <v>-57045.47371833757</v>
+        <v>-57045.47371833774</v>
       </c>
       <c r="D6" t="n">
-        <v>-57045.47371833773</v>
+        <v>-57045.47371833774</v>
       </c>
       <c r="E6" t="n">
-        <v>-298891.1447973539</v>
+        <v>-298925.8827227898</v>
       </c>
       <c r="F6" t="n">
-        <v>26521.31701000126</v>
+        <v>26486.57908456554</v>
       </c>
       <c r="G6" t="n">
-        <v>26521.31701000124</v>
+        <v>26486.57908456556</v>
       </c>
       <c r="H6" t="n">
-        <v>26521.31701000129</v>
+        <v>26486.57908456556</v>
       </c>
       <c r="I6" t="n">
-        <v>26521.31701000126</v>
+        <v>26486.57908456554</v>
       </c>
       <c r="J6" t="n">
-        <v>-191009.8853872763</v>
+        <v>-191044.623312712</v>
       </c>
       <c r="K6" t="n">
-        <v>26521.3170100014</v>
+        <v>26486.57908456551</v>
       </c>
       <c r="L6" t="n">
-        <v>-507.1914962336596</v>
+        <v>-507.1914962337469</v>
       </c>
       <c r="M6" t="n">
-        <v>-66134.50143811402</v>
+        <v>-66134.50143811389</v>
       </c>
       <c r="N6" t="n">
-        <v>18920.52649739804</v>
+        <v>18920.52649739773</v>
       </c>
       <c r="O6" t="n">
+        <v>18920.52649739796</v>
+      </c>
+      <c r="P6" t="n">
         <v>18920.52649739807</v>
-      </c>
-      <c r="P6" t="n">
-        <v>18920.52649739801</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203965</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>330.0080098234361</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>213.3288905911375</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>188.7092715437682</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>247.4847299030632</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>267.9506035067369</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>21.55480923451</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>86.11475663052764</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>211.9999271999641</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,70 +28087,70 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>481.4297026814658</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,7 +32078,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>465.2641870096817</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>501.1621040024322</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P24" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>268.5330199802463</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34442,19 +34442,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34469,7 +34469,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>201.0237153962093</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>198.2472821702757</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>339.2956687594475</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>369.8203919190989</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P24" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>439.190340064064</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
